--- a/Объемы XML/О_Арматура трубопроводов.xlsx
+++ b/Объемы XML/О_Арматура трубопроводов.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pokla\Documents\Inventor\PNS-Panaevsk\Объемы XML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61E241E-4123-4973-8659-7E37BC98DCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC16F49-6931-4FFE-B3A9-B8AA3BD587FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>Column1</t>
   </si>
@@ -81,15 +81,6 @@
     <t>Число</t>
   </si>
   <si>
-    <t>Затвор-бабочка н-ПВХ дисковый</t>
-  </si>
-  <si>
-    <t>ручной привод</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> уплотнение EPDM O-ring d90</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -151,6 +142,9 @@
   </si>
   <si>
     <t>BVI10+EAQ-EFM</t>
+  </si>
+  <si>
+    <t>Затвор-бабочка н-ПВХ дисковый, ручной привод, уплотнение EPDM O-ring d90</t>
   </si>
 </sst>
 </file>
@@ -722,7 +716,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,16 +794,12 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
         <v>12</v>
@@ -820,19 +810,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -840,19 +830,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -860,19 +850,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -880,19 +870,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -900,19 +890,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -920,19 +910,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -940,19 +930,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -960,19 +950,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
